--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="New Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,188 +397,1256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>load</v>
+        <v>line_no</v>
       </c>
       <c r="B1" t="str">
-        <v>r</v>
+        <v xml:space="preserve">               from_bus</v>
       </c>
       <c r="C1" t="str">
-        <v>x</v>
+        <v xml:space="preserve">          to_bus                                    </v>
       </c>
       <c r="D1" t="str">
-        <v>p</v>
+        <v>R_OHM</v>
       </c>
       <c r="E1" t="str">
-        <v>q</v>
+        <v>X_OHM</v>
       </c>
       <c r="F1" t="str">
-        <v>rv</v>
+        <v>Z_OHM</v>
       </c>
       <c r="G1" t="str">
-        <v>iv</v>
+        <v>Re_line_current</v>
       </c>
       <c r="H1" t="str">
-        <v>ir</v>
+        <v>Imz_line_current</v>
       </c>
       <c r="I1" t="str">
-        <v>ii</v>
+        <v>realLoad</v>
+      </c>
+      <c r="J1" t="str">
+        <v>reactiveLoad</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Re_Node_voltages</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Imz_Node_voltages</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>h1</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Substation UNBVN</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Substation at NIT Kurukshetra</v>
+      </c>
+      <c r="D2">
+        <v>0.0922</v>
+      </c>
+      <c r="E2">
+        <v>0.0477</v>
+      </c>
+      <c r="F2">
+        <v>0.10380814033591008</v>
+      </c>
+      <c r="G2">
+        <v>286.14718614718606</v>
+      </c>
+      <c r="H2">
+        <v>-181.81818181818184</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B3" t="str">
+        <v>Substation at NIT Kurukshetra</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Training and Placement Cell</v>
+      </c>
+      <c r="D3">
+        <v>0.493</v>
+      </c>
+      <c r="E3">
+        <v>0.2511</v>
+      </c>
+      <c r="F3">
+        <v>0.5532632375280324</v>
+      </c>
+      <c r="G3">
+        <v>277.4891774891774</v>
+      </c>
+      <c r="H3">
+        <v>-176.62337662337666</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>11.55</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="B4" t="str">
+        <v>Training and Placement Cell</v>
+      </c>
+      <c r="C4" t="str">
+        <v>H4</v>
+      </c>
+      <c r="D4">
+        <v>0.366</v>
+      </c>
+      <c r="E4">
+        <v>0.1864</v>
+      </c>
+      <c r="F4">
+        <v>0.41073222420452965</v>
+      </c>
+      <c r="G4">
+        <v>269.6969696969696</v>
+      </c>
+      <c r="H4">
+        <v>-173.1601731601732</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>11.55</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>H4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>H5</v>
+      </c>
+      <c r="D5">
+        <v>0.3811</v>
+      </c>
+      <c r="E5">
+        <v>0.1941</v>
+      </c>
+      <c r="F5">
+        <v>0.4276821483298081</v>
+      </c>
+      <c r="G5">
+        <v>259.3073593073592</v>
+      </c>
+      <c r="H5">
+        <v>-166.23376623376626</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <v>11.55</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>H5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>H6</v>
+      </c>
+      <c r="D6">
+        <v>0.819</v>
+      </c>
+      <c r="E6">
+        <v>0.707</v>
+      </c>
+      <c r="F6">
+        <v>1.0819473184956834</v>
+      </c>
+      <c r="G6">
+        <v>254.112554112554</v>
+      </c>
+      <c r="H6">
+        <v>-163.63636363636365</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>11.55</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>H6</v>
+      </c>
+      <c r="C7" t="str">
+        <v>H3</v>
+      </c>
+      <c r="D7">
+        <v>0.1872</v>
+      </c>
+      <c r="E7">
+        <v>0.6188</v>
+      </c>
+      <c r="F7">
+        <v>0.6464961562144047</v>
+      </c>
+      <c r="G7">
+        <v>248.9177489177488</v>
+      </c>
+      <c r="H7">
+        <v>-161.90476190476193</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>11.55</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>H3</v>
+      </c>
+      <c r="C8" t="str">
+        <v>H2</v>
+      </c>
+      <c r="D8">
+        <v>1.7114</v>
+      </c>
+      <c r="E8">
+        <v>1.2351</v>
+      </c>
+      <c r="F8">
+        <v>2.1105359437830007</v>
+      </c>
+      <c r="G8">
+        <v>231.6017316017315</v>
+      </c>
+      <c r="H8">
+        <v>-153.24675324675326</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>11.55</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>H2</v>
+      </c>
+      <c r="C9" t="str">
+        <v>H1</v>
+      </c>
+      <c r="D9">
+        <v>1.03</v>
+      </c>
+      <c r="E9">
+        <v>0.74</v>
+      </c>
+      <c r="F9">
+        <v>1.2682665335015348</v>
+      </c>
+      <c r="G9">
+        <v>214.2857142857142</v>
+      </c>
+      <c r="H9">
+        <v>-144.5887445887446</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>11.55</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>H1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>H11</v>
+      </c>
+      <c r="D10">
+        <v>1.04</v>
+      </c>
+      <c r="E10">
+        <v>0.74</v>
+      </c>
+      <c r="F10">
+        <v>1.276401190848708</v>
+      </c>
+      <c r="G10">
+        <v>209.090909090909</v>
+      </c>
+      <c r="H10">
+        <v>-142.85714285714286</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>11.55</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>H11</v>
+      </c>
+      <c r="C11" t="str">
+        <v>H8</v>
+      </c>
+      <c r="D11">
+        <v>0.1966</v>
+      </c>
+      <c r="E11">
+        <v>0.065</v>
+      </c>
+      <c r="F11">
+        <v>0.20706655934747165</v>
+      </c>
+      <c r="G11">
+        <v>203.89610389610382</v>
+      </c>
+      <c r="H11">
+        <v>-141.12554112554113</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>11.55</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="I2">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>h2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="B12" t="str">
+        <v>H8</v>
+      </c>
+      <c r="C12" t="str">
+        <v>H7</v>
+      </c>
+      <c r="D12">
+        <v>0.3744</v>
+      </c>
+      <c r="E12">
+        <v>0.1238</v>
+      </c>
+      <c r="F12">
+        <v>0.39433716538008434</v>
+      </c>
+      <c r="G12">
+        <v>199.99999999999991</v>
+      </c>
+      <c r="H12">
+        <v>-138.52813852813853</v>
+      </c>
+      <c r="I12">
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>11.55</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>H7</v>
+      </c>
+      <c r="C13" t="str">
+        <v>H9</v>
+      </c>
+      <c r="D13">
+        <v>1.468</v>
+      </c>
+      <c r="E13">
+        <v>1.155</v>
+      </c>
+      <c r="F13">
+        <v>1.8678996225707634</v>
+      </c>
+      <c r="G13">
+        <v>194.80519480519473</v>
+      </c>
+      <c r="H13">
+        <v>-135.4978354978355</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>11.55</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>H9</v>
+      </c>
+      <c r="C14" t="str">
+        <v>H10</v>
+      </c>
+      <c r="D14">
+        <v>0.5416</v>
+      </c>
+      <c r="E14">
+        <v>0.7129</v>
+      </c>
+      <c r="F14">
+        <v>0.8952971406186887</v>
+      </c>
+      <c r="G14">
+        <v>189.61038961038955</v>
+      </c>
+      <c r="H14">
+        <v>-132.46753246753246</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>11.55</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>H10</v>
+      </c>
+      <c r="C15" t="str">
+        <v>K. Chawla Hostel</v>
+      </c>
+      <c r="D15">
+        <v>0.591</v>
+      </c>
+      <c r="E15">
+        <v>0.526</v>
+      </c>
+      <c r="F15">
+        <v>0.7911744434699594</v>
+      </c>
+      <c r="G15">
+        <v>179.22077922077915</v>
+      </c>
+      <c r="H15">
+        <v>-125.54112554112552</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>11.55</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>K. Chawla Hostel</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Alaknanda Bhawan</v>
+      </c>
+      <c r="D16">
+        <v>0.7463</v>
+      </c>
+      <c r="E16">
+        <v>0.545</v>
+      </c>
+      <c r="F16">
+        <v>0.9241150848243956</v>
+      </c>
+      <c r="G16">
+        <v>174.02597402597397</v>
+      </c>
+      <c r="H16">
+        <v>-124.67532467532466</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>h3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>h4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>h5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>-4</v>
+      <c r="K16">
+        <v>11.55</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Alaknanda Bhawan</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Bhagirathi Bhawan</v>
+      </c>
+      <c r="D17">
+        <v>1.289</v>
+      </c>
+      <c r="E17">
+        <v>1.721</v>
+      </c>
+      <c r="F17">
+        <v>2.150200455771508</v>
+      </c>
+      <c r="G17">
+        <v>168.83116883116878</v>
+      </c>
+      <c r="H17">
+        <v>-122.94372294372293</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>11.55</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Bhagirathi Bhawan</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Substation at NIT Kurukshetra</v>
+      </c>
+      <c r="D18">
+        <v>0.732</v>
+      </c>
+      <c r="E18">
+        <v>0.574</v>
+      </c>
+      <c r="F18">
+        <v>0.9302150289046076</v>
+      </c>
+      <c r="G18">
+        <v>163.6363636363636</v>
+      </c>
+      <c r="H18">
+        <v>-121.2121212121212</v>
+      </c>
+      <c r="I18">
+        <v>60</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>11.55</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Substation at NIT Kurukshetra</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Admin Building</v>
+      </c>
+      <c r="D19">
+        <v>0.164</v>
+      </c>
+      <c r="E19">
+        <v>0.1565</v>
+      </c>
+      <c r="F19">
+        <v>0.22668976597985185</v>
+      </c>
+      <c r="G19">
+        <v>154.97835497835493</v>
+      </c>
+      <c r="H19">
+        <v>-116.017316017316</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>11.55</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Admin Building</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Market</v>
+      </c>
+      <c r="D20">
+        <v>1.5042</v>
+      </c>
+      <c r="E20">
+        <v>1.3554</v>
+      </c>
+      <c r="F20">
+        <v>2.0247782100763527</v>
+      </c>
+      <c r="G20">
+        <v>151.51515151515147</v>
+      </c>
+      <c r="H20">
+        <v>-112.55411255411255</v>
+      </c>
+      <c r="I20">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>11.55</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Market</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Residential Area-2</v>
+      </c>
+      <c r="D21">
+        <v>0.4095</v>
+      </c>
+      <c r="E21">
+        <v>0.4784</v>
+      </c>
+      <c r="F21">
+        <v>0.6297275680800388</v>
+      </c>
+      <c r="G21">
+        <v>148.05194805194802</v>
+      </c>
+      <c r="H21">
+        <v>-109.0909090909091</v>
+      </c>
+      <c r="I21">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>11.55</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Residential Area-2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>H6</v>
+      </c>
+      <c r="D22">
+        <v>0.7089</v>
+      </c>
+      <c r="E22">
+        <v>0.9373</v>
+      </c>
+      <c r="F22">
+        <v>1.1751895591775823</v>
+      </c>
+      <c r="G22">
+        <v>140.25974025974023</v>
+      </c>
+      <c r="H22">
+        <v>-105.62770562770564</v>
+      </c>
+      <c r="I22">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>11.55</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>H6</v>
+      </c>
+      <c r="C23" t="str">
+        <v>LHC block</v>
+      </c>
+      <c r="D23">
+        <v>0.203</v>
+      </c>
+      <c r="E23">
+        <v>0.1034</v>
+      </c>
+      <c r="F23">
+        <v>0.22781694405816263</v>
+      </c>
+      <c r="G23">
+        <v>135.06493506493504</v>
+      </c>
+      <c r="H23">
+        <v>-103.89610389610391</v>
+      </c>
+      <c r="I23">
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>11.55</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>LHC block</v>
+      </c>
+      <c r="C24" t="str">
+        <v>MCA Deptt</v>
+      </c>
+      <c r="D24">
+        <v>0.2842</v>
+      </c>
+      <c r="E24">
+        <v>0.1447</v>
+      </c>
+      <c r="F24">
+        <v>0.3189164937722726</v>
+      </c>
+      <c r="G24">
+        <v>129.87012987012986</v>
+      </c>
+      <c r="H24">
+        <v>-101.73160173160174</v>
+      </c>
+      <c r="I24">
+        <v>60</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>11.55</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>MCA Deptt</v>
+      </c>
+      <c r="C25" t="str">
+        <v>SCOE</v>
+      </c>
+      <c r="D25">
+        <v>1.059</v>
+      </c>
+      <c r="E25">
+        <v>0.9337</v>
+      </c>
+      <c r="F25">
+        <v>1.4118345122570137</v>
+      </c>
+      <c r="G25">
+        <v>124.67532467532466</v>
+      </c>
+      <c r="H25">
+        <v>-99.56709956709958</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>11.55</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>SCOE</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Applied mechanics block</v>
+      </c>
+      <c r="D26">
+        <v>0.8042</v>
+      </c>
+      <c r="E26">
+        <v>0.7006</v>
+      </c>
+      <c r="F26">
+        <v>1.0665730167222496</v>
+      </c>
+      <c r="G26">
+        <v>119.48051948051946</v>
+      </c>
+      <c r="H26">
+        <v>-97.83549783549785</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>11.55</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Applied mechanics block</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Civil Deptt</v>
+      </c>
+      <c r="D27">
+        <v>0.5075</v>
+      </c>
+      <c r="E27">
+        <v>0.2585</v>
+      </c>
+      <c r="F27">
+        <v>0.5695423601454065</v>
+      </c>
+      <c r="G27">
+        <v>109.09090909090907</v>
+      </c>
+      <c r="H27">
+        <v>-91.77489177489178</v>
+      </c>
+      <c r="I27">
+        <v>120</v>
+      </c>
+      <c r="J27">
+        <v>70</v>
+      </c>
+      <c r="K27">
+        <v>11.55</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Civil Deptt</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Electrical Deptt</v>
+      </c>
+      <c r="D28">
+        <v>0.9744</v>
+      </c>
+      <c r="E28">
+        <v>0.963</v>
+      </c>
+      <c r="F28">
+        <v>1.3699723938824462</v>
+      </c>
+      <c r="G28">
+        <v>91.77489177489176</v>
+      </c>
+      <c r="H28">
+        <v>-39.82683982683983</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <v>600</v>
+      </c>
+      <c r="K28">
+        <v>11.55</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Electrical Deptt</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Road lighting</v>
+      </c>
+      <c r="D29">
+        <v>0.3105</v>
+      </c>
+      <c r="E29">
+        <v>0.3619</v>
+      </c>
+      <c r="F29">
+        <v>0.47684574025569315</v>
+      </c>
+      <c r="G29">
+        <v>70.12987012987011</v>
+      </c>
+      <c r="H29">
+        <v>-33.76623376623377</v>
+      </c>
+      <c r="I29">
+        <v>250</v>
+      </c>
+      <c r="J29">
+        <v>70</v>
+      </c>
+      <c r="K29">
+        <v>11.55</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Road lighting</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Training and Placement Cell</v>
+      </c>
+      <c r="D30">
+        <v>0.341</v>
+      </c>
+      <c r="E30">
+        <v>0.5302</v>
+      </c>
+      <c r="F30">
+        <v>0.6303911801413469</v>
+      </c>
+      <c r="G30">
+        <v>51.94805194805194</v>
+      </c>
+      <c r="H30">
+        <v>-25.108225108225106</v>
+      </c>
+      <c r="I30">
+        <v>210</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>11.55</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Training and Placement Cell</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CSE Deptt</v>
+      </c>
+      <c r="D31">
+        <v>0.4512</v>
+      </c>
+      <c r="E31">
+        <v>0.3083</v>
+      </c>
+      <c r="F31">
+        <v>0.5464707951940342</v>
+      </c>
+      <c r="G31">
+        <v>44.15584415584415</v>
+      </c>
+      <c r="H31">
+        <v>-21.645021645021643</v>
+      </c>
+      <c r="I31">
+        <v>90</v>
+      </c>
+      <c r="J31">
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <v>11.55</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>CSE Deptt</v>
+      </c>
+      <c r="C32" t="str">
+        <v>ECE Block</v>
+      </c>
+      <c r="D32">
+        <v>0.898</v>
+      </c>
+      <c r="E32">
+        <v>0.7091</v>
+      </c>
+      <c r="F32">
+        <v>1.144214494751749</v>
+      </c>
+      <c r="G32">
+        <v>7.792207792207792</v>
+      </c>
+      <c r="H32">
+        <v>-4.329004329004329</v>
+      </c>
+      <c r="I32">
+        <v>90</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>11.55</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>ECE Block</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Library</v>
+      </c>
+      <c r="D33">
+        <v>0.896</v>
+      </c>
+      <c r="E33">
+        <v>0.7011</v>
+      </c>
+      <c r="F33">
+        <v>1.1376982069072623</v>
+      </c>
+      <c r="G33">
+        <v>36.36363636363636</v>
+      </c>
+      <c r="H33">
+        <v>-17.316017316017316</v>
+      </c>
+      <c r="I33">
+        <v>420</v>
+      </c>
+      <c r="J33">
+        <v>200</v>
+      </c>
+      <c r="K33">
+        <v>11.55</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L33"/>
   </ignoredErrors>
 </worksheet>
 </file>